--- a/Feature-Analysis/Resize Feature/s_04_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_04_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.52916666667</v>
+        <v>738157.52916666667</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.53017361113</v>
+        <v>738157.53017361113</v>
       </c>
       <c r="C3" s="0">
         <v>87.000000849366188</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.53017361113</v>
+        <v>738157.53017361113</v>
       </c>
       <c r="C4" s="0">
         <v>87.000000849366188</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.53052083333</v>
+        <v>738157.53052083333</v>
       </c>
       <c r="C5" s="0">
         <v>116.99999906122684</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.53087962966</v>
+        <v>738157.53087962966</v>
       </c>
       <c r="C6" s="0">
         <v>148.00000190734863</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.53121527773</v>
+        <v>738157.53121527773</v>
       </c>
       <c r="C7" s="0">
         <v>176.99999548494816</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.53156250005</v>
+        <v>738157.53156250005</v>
       </c>
       <c r="C8" s="0">
         <v>207.00000375509262</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.53192129626</v>
+        <v>738157.53192129626</v>
       </c>
       <c r="C9" s="0">
         <v>237.9999965429306</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.53260416666</v>
+        <v>738157.53260416666</v>
       </c>
       <c r="C10" s="0">
         <v>296.99999839067459</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.53293981485</v>
+        <v>738157.53293981485</v>
       </c>
       <c r="C11" s="0">
         <v>326.00000202655792</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.53332175931</v>
+        <v>738157.53332175931</v>
       </c>
       <c r="C12" s="0">
         <v>359.00000408291817</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.53364583338</v>
+        <v>738157.53364583338</v>
       </c>
       <c r="C13" s="0">
         <v>387.00000308454037</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.53399305558</v>
+        <v>738157.53399305558</v>
       </c>
       <c r="C14" s="0">
         <v>417.00000129640102</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.53434027778</v>
+        <v>738157.53434027778</v>
       </c>
       <c r="C15" s="0">
         <v>446.99999950826168</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.53469907411</v>
+        <v>738157.53469907411</v>
       </c>
       <c r="C16" s="0">
         <v>478.00000235438347</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.53540509264</v>
+        <v>738157.53540509264</v>
       </c>
       <c r="C17" s="0">
         <v>539.00000341236591</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.53571759257</v>
+        <v>738157.53571759257</v>
       </c>
       <c r="C18" s="0">
         <v>565.99999777972698</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.53609953704</v>
+        <v>738157.53609953704</v>
       </c>
       <c r="C19" s="0">
         <v>598.99999983608723</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.53641203698</v>
+        <v>738157.53641203698</v>
       </c>
       <c r="C20" s="0">
         <v>625.9999942034483</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.53678240743</v>
+        <v>738157.53678240743</v>
       </c>
       <c r="C21" s="0">
         <v>658.00000168383121</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.53712962964</v>
+        <v>738157.53712962964</v>
       </c>
       <c r="C22" s="0">
         <v>687.99999989569187</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.53746527783</v>
+        <v>738157.53746527783</v>
       </c>
       <c r="C23" s="0">
         <v>717.0000035315752</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.5378009259</v>
+        <v>738157.5378009259</v>
       </c>
       <c r="C24" s="0">
         <v>745.99999710917473</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.53849537042</v>
+        <v>738157.53849537042</v>
       </c>
       <c r="C25" s="0">
         <v>806.00000359117985</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.53883101849</v>
+        <v>738157.53883101849</v>
       </c>
       <c r="C26" s="0">
         <v>834.99999716877937</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.53918981482</v>
+        <v>738157.53918981482</v>
       </c>
       <c r="C27" s="0">
         <v>866.00000001490116</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.53951388889</v>
+        <v>738157.53951388889</v>
       </c>
       <c r="C28" s="0">
         <v>893.99999901652336</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.53988425923</v>
+        <v>738157.53988425923</v>
       </c>
       <c r="C29" s="0">
         <v>925.99999643862247</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.54021990742</v>
+        <v>738157.54021990742</v>
       </c>
       <c r="C30" s="0">
         <v>955.00000007450581</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.54057870375</v>
+        <v>738157.54057870375</v>
       </c>
       <c r="C31" s="0">
         <v>986.00000292062759</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.54091435182</v>
+        <v>738157.54091435182</v>
       </c>
       <c r="C32" s="0">
         <v>1014.9999964982271</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.54160879634</v>
+        <v>738157.54160879634</v>
       </c>
       <c r="C33" s="0">
         <v>1075.0000029802322</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.54197916668</v>
+        <v>738157.54197916668</v>
       </c>
       <c r="C34" s="0">
         <v>1107.0000004023314</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.54229166661</v>
+        <v>738157.54229166661</v>
       </c>
       <c r="C35" s="0">
         <v>1133.9999947696924</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.54265046294</v>
+        <v>738157.54265046294</v>
       </c>
       <c r="C36" s="0">
         <v>1164.9999976158142</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.54300925927</v>
+        <v>738157.54300925927</v>
       </c>
       <c r="C37" s="0">
         <v>1196.000000461936</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.54334490746</v>
+        <v>738157.54334490746</v>
       </c>
       <c r="C38" s="0">
         <v>1225.0000040978193</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.54370370368</v>
+        <v>738157.54370370368</v>
       </c>
       <c r="C39" s="0">
         <v>1255.9999968856573</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.54405092588</v>
+        <v>738157.54405092588</v>
       </c>
       <c r="C40" s="0">
         <v>1285.999995097518</v>
